--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Abitech\ASCOA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5A1A1E-3EC3-484D-8689-99F1FB913445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E669C5C-8681-49F7-8F7A-5161AC650B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0442E5F9-BBC5-4C14-93B2-7FDD711C1F6E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0442E5F9-BBC5-4C14-93B2-7FDD711C1F6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Вагон 1001</t>
   </si>
@@ -52,14 +52,74 @@
   </si>
   <si>
     <t>Abitech Group</t>
+  </si>
+  <si>
+    <t>Тип обслуживания</t>
+  </si>
+  <si>
+    <t>Показатели</t>
+  </si>
+  <si>
+    <t>Типы показателей</t>
+  </si>
+  <si>
+    <t>Пробег ТО1</t>
+  </si>
+  <si>
+    <t>Пробег ТО2</t>
+  </si>
+  <si>
+    <t>Пробег КР</t>
+  </si>
+  <si>
+    <t>Нормы</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паровоз </t>
+  </si>
+  <si>
+    <t>П001</t>
+  </si>
+  <si>
+    <t>Давление котла</t>
+  </si>
+  <si>
+    <t>Пробег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Последнее обслуживание </t>
+  </si>
+  <si>
+    <t>КР</t>
+  </si>
+  <si>
+    <t>Наряд-задание</t>
+  </si>
+  <si>
+    <t>Закрытие</t>
+  </si>
+  <si>
+    <t>Журнал выполнен работ/обслужив</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,8 +148,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD233762-2733-4326-BB83-70C8B815D25E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +479,12 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -427,8 +494,14 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +515,137 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>8000</v>
+      </c>
+      <c r="O4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>15000</v>
+      </c>
+      <c r="O5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>45000</v>
+      </c>
+      <c r="O6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <f>C12-C14</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44197</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4">
+        <v>44197</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1">
+        <v>51</v>
+      </c>
+      <c r="L16" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>